--- a/split_data/standard_in/Kaohsiung/高雄市.xlsx
+++ b/split_data/standard_in/Kaohsiung/高雄市.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I270"/>
+  <dimension ref="A1:I272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3738,28 +3738,28 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>仁武區仁雄路與澄仁路口</t>
+          <t>仁武區澄觀路一段(新庄路以西150公尺處)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -3777,28 +3777,28 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>仁武區鳳仁路與成功路口</t>
+          <t>仁武區仁雄路與澄仁路口</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>仁武區水管路與澄觀路口</t>
+          <t>仁武區鳳仁路與成功路口</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3826,12 +3826,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>仁武區鳳仁路183線2.45公里</t>
+          <t>仁武區水管路與澄觀路口</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3865,18 +3865,18 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -3894,28 +3894,28 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>仁武區高楠公路與八德二路口</t>
+          <t>仁武區鳳仁路183線2.45公里</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>60/40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -3933,12 +3933,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>仁武區澄觀路與仁林路口</t>
+          <t>仁武區高楠公路與八德二路口</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>60/40</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3954,7 +3954,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>仁武區澄觀路與鳳仁路口</t>
+          <t>仁武區澄觀路與仁林路口</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>仁武區鳳仁路與竹門巷口</t>
+          <t>仁武區澄觀路與鳳仁路口</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>60/40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -4050,12 +4050,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>仁武區水管路與鳳仁路</t>
+          <t>仁武區鳳仁路與竹門巷口</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60/40</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>仁武區高楠公路23號前</t>
+          <t>仁武區水管路與鳳仁路</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -4123,22 +4123,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>內門</t>
+          <t>仁武</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>內門區旗文路(台三線401.88K)</t>
+          <t>仁武區高楠公路23號前</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4149,7 +4149,7 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -4162,17 +4162,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>六龜</t>
+          <t>內門</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>六龜區旗六公路新威國小前</t>
+          <t>內門區旗文路(台三線401.88K)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>六龜區台28線茂林國家風景區管理處前路口</t>
+          <t>六龜區旗六公路新威國小前</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4216,18 +4216,18 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>六龜區三民路37號旁(台28線45.7K)</t>
+          <t>六龜區台28線茂林國家風景區管理處前路口</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4255,18 +4255,18 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -4279,12 +4279,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>左營</t>
+          <t>六龜</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>左營區博愛三路與崇德路口</t>
+          <t>六龜區三民路37號旁(台28線45.7K)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4294,18 +4294,18 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>左營區新庄仔路與自由二路口</t>
+          <t>左營區博愛三路與崇德路口</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -4362,12 +4362,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>華夏路與新庄仔路口</t>
+          <t>左營區新庄仔路與自由二路口</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>左營區博愛三路與文自路口</t>
+          <t>華夏路與新庄仔路口</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -4440,28 +4440,28 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>左營區大中二路與華夏路口</t>
+          <t>左營區博愛三路與文自路口</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -4479,28 +4479,28 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>左營區華夏路337巷口</t>
+          <t>左營區大中二路與華夏路口</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -4518,28 +4518,28 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>左營區大中高架道路華夏匝道口</t>
+          <t>左營區華夏路337巷口</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>左營區大中高架道路文川匝道口</t>
+          <t>左營區大中高架道路華夏匝道口</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -4596,28 +4596,28 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>左營區高鐵路與曾子路口</t>
+          <t>左營區大中高架道路文川匝道口</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>北向南西</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>左營區翠華路與明潭路口</t>
+          <t>左營區高鐵路與曾子路口</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>北向南西</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>左營區博愛二路與裕誠路口</t>
+          <t>左營區翠華路與明潭路口</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4695,7 +4695,7 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>左營區高鐵路與大中二路口</t>
+          <t>左營區博愛二路與裕誠路口</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4752,12 +4752,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>左營區民族一路與大中一路</t>
+          <t>左營區高鐵路與大中二路口</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>60/40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -4791,17 +4791,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>左營區博愛二路與新庄仔路口/新莊一路</t>
+          <t>左營區民族一路與大中一路</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>50/40</t>
+          <t>60/40</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4830,28 +4830,28 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>左營區介壽路與先鋒路口</t>
+          <t>左營區博愛二路與新庄仔路口/新莊一路</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50/40</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>左營區翠華路與站前南路</t>
+          <t>左營區介壽路與先鋒路口</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4884,13 +4884,13 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -4908,12 +4908,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>左營區翠華路與華榮路口</t>
+          <t>左營區翠華路與站前南路</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>50/40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4923,13 +4923,13 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -4947,12 +4947,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>左營區翠華路與崇德路口</t>
+          <t>左營區翠華路與華榮路口</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50/40</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>左營區大中二路/文自路</t>
+          <t>左營區翠華路與崇德路口</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>左營區新莊一路/新榮街口</t>
+          <t>左營區大中二路/文自路</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>左營區軍校路國軍高雄總醫院左營分院前</t>
+          <t>左營區新莊一路/新榮街口</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5074,18 +5074,18 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -5103,17 +5103,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>左營區翠華路/勝利路</t>
+          <t>左營區軍校路國軍高雄總醫院左營分院前</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>50/40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5124,7 +5124,7 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -5142,28 +5142,28 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>左營區左營高架橋(中華陸橋)往北下橋處</t>
+          <t>左營區翠華路/勝利路</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50/40</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -5171,7 +5171,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>左營區先鋒路293號對面</t>
+          <t>左營區左營高架橋(中華陸橋)往北下橋處</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5215,17 +5215,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>永安</t>
+          <t>左營</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>永安區台17線(保安路)201.2K處</t>
+          <t>左營區先鋒路293號對面</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>南北向</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -5254,17 +5254,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>田寮</t>
+          <t>永安</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>田寮區台28線鹿埔路19號前</t>
+          <t>永安區台17線(保安路)201.2K處</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南北向</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>田寮區古亭路(台28線)18號以東67.5公尺處(往阿蓮方向)</t>
+          <t>田寮區台28線鹿埔路19號前</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
@@ -5332,12 +5332,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>杉林</t>
+          <t>田寮</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>杉林區市道181線(杉美路1段)2K+675</t>
+          <t>田寮區古亭路(台28線)18號以東67.5公尺處(往阿蓮方向)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
@@ -5376,12 +5376,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>杉林區台29線53K+207</t>
+          <t>杉林區市道181線(杉美路1段)2K+675</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -5410,12 +5410,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>岡山</t>
+          <t>杉林</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>岡山區嘉新東路與聖森路口</t>
+          <t>杉林區台29線53K+207</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5425,18 +5425,18 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>岡山區介壽東路與和平路口</t>
+          <t>岡山區嘉新東路與聖森路口</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5464,18 +5464,18 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -5493,28 +5493,28 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>岡山區嘉峰路高鐵橋下</t>
+          <t>岡山區介壽東路與和平路口</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>岡山區大德一路與中山北路</t>
+          <t>岡山區嘉峰路高鐵橋下</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5542,18 +5542,18 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -5561,7 +5561,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>岡山區介壽東路與岡燕路</t>
+          <t>岡山區大德一路與中山北路</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>60/40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -5610,12 +5610,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>岡山區聖森路/岡燕路口</t>
+          <t>岡山區介壽東路與岡燕路</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60/40</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>岡山區國軒路/鵬程東二路口</t>
+          <t>岡山區聖森路/岡燕路口</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5659,18 +5659,18 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>岡山區聖森路與聖森路160巷口</t>
+          <t>岡山區國軒路/鵬程東二路口</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>岡山區嘉新東路與新庄路口</t>
+          <t>岡山區聖森路與聖森路160巷口</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>岡山區大莊路60巷90號對面</t>
+          <t>岡山區嘉新東路與新庄路口</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -5800,33 +5800,33 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>林園</t>
+          <t>岡山</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>林園區沿海路二段與林園南路口</t>
+          <t>岡山區大莊路60巷90號對面</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>林園區台25線14.5公里處</t>
+          <t>林園區沿海路二段與林園南路口</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5854,18 +5854,18 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -5883,28 +5883,28 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>林園區中門路與南星路口(快車道)</t>
+          <t>林園區台25線14.5公里處</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -5922,12 +5922,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>林園區中門路與南星路口(慢車道)</t>
+          <t>林園區中門路與南星路口(快車道)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5961,17 +5961,17 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>林園區鳳林路三段與潭頭路口</t>
+          <t>林園區中門路與南星路口(慢車道)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5982,7 +5982,7 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>林園區台29線108.4公里處</t>
+          <t>林園區鳳林路三段與潭頭路口</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6010,18 +6010,18 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -6034,17 +6034,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>阿蓮</t>
+          <t>林園</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>阿蓮區復安路與玉庫路口(台19甲線往阿蓮市區)</t>
+          <t>林園區台29線108.4公里處</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -6073,17 +6073,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>前金</t>
+          <t>林園</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>中華三路與民生二路口</t>
+          <t>林園區鳳林路二段與林園北路口</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6099,7 +6099,7 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -6112,12 +6112,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>前鎮</t>
+          <t>阿蓮</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>一心一路與和平二路口</t>
+          <t>阿蓮區復安路與玉庫路口(台19甲線往阿蓮市區)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6127,18 +6127,18 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -6151,12 +6151,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>前鎮</t>
+          <t>前金</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>一心一路與光華二路口</t>
+          <t>中華三路與民生二路口</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>保泰路與瑞隆路口</t>
+          <t>一心一路與和平二路口</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
@@ -6234,12 +6234,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>中山二路與文橫三路口</t>
+          <t>一心一路與光華二路口</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
@@ -6273,12 +6273,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>中山三路與正勤路口</t>
+          <t>保泰路與瑞隆路口</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>60/40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
@@ -6312,12 +6312,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>凱旋四路與凱旋四路424巷口</t>
+          <t>中山二路與文橫三路口</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6327,13 +6327,13 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -6351,12 +6351,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>成功二路、興發路口</t>
+          <t>中山三路與正勤路口</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60/40</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6372,7 +6372,7 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -6390,22 +6390,22 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>中華五路與復興三路口</t>
+          <t>凱旋四路與凱旋四路424巷口</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
@@ -6429,17 +6429,17 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>中山四路與中平路口</t>
+          <t>成功二路、興發路口</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6468,17 +6468,17 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>中山三路與凱旋四路</t>
+          <t>中華五路與復興三路口</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6489,7 +6489,7 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -6507,17 +6507,17 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>中山四路與金福路口</t>
+          <t>中山四路與中平路口</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6528,7 +6528,7 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>非線圈數位-雷達(雷射)</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -6546,17 +6546,17 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>中山四路與中安路口</t>
+          <t>中山三路與凱旋四路</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6567,7 +6567,7 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -6585,17 +6585,17 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>中山四路與鎮海路口</t>
+          <t>中山四路與金福路口</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6606,7 +6606,7 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷達(雷射)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>三多二路與桂林街口</t>
+          <t>中山四路與中安路口</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6634,18 +6634,18 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -6663,28 +6663,28 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>凱旋四路與籬仔內路口</t>
+          <t>中山四路與鎮海路口</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
-          <t>非線圈數位-雷達(雷射)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -6702,12 +6702,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>前鎮區草衙二路與金福路口</t>
+          <t>三多二路與桂林街口</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6717,13 +6717,13 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>前鎮區成功二路與舊凱旋四路口</t>
+          <t>凱旋四路與籬仔內路口</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6762,7 +6762,7 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>非線圈數位-雷達(雷射)</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
@@ -6780,12 +6780,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>前鎮區凱旋四路與鎮興路口</t>
+          <t>前鎮區草衙二路與金福路口</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>前鎮區舊凱旋四路與鎮興路口</t>
+          <t>前鎮區成功二路與舊凱旋四路口</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>前鎮區舊凱旋四路與前鎮街口</t>
+          <t>前鎮區凱旋四路與鎮興路口</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G165" t="inlineStr"/>
@@ -6897,28 +6897,28 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>前鎮區新生高架道路0.82K</t>
+          <t>前鎮區舊凱旋四路與鎮興路口</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I166" t="inlineStr"/>
@@ -6936,12 +6936,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>前鎮區凱旋四路與前鎮街口(輕軌沿線)</t>
+          <t>前鎮區舊凱旋四路與前鎮街口</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>50/40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G167" t="inlineStr"/>
@@ -6975,28 +6975,28 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>前鎮區新生路與金福路口</t>
+          <t>前鎮區新生高架道路0.82K</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>50/40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>前鎮區新生路與金福路口</t>
+          <t>前鎮區凱旋四路與前鎮街口(輕軌沿線)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -7024,18 +7024,18 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
@@ -7053,28 +7053,28 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>高速公路接金福路之高架聯絡道南下（離金福路出口900公尺處)</t>
+          <t>前鎮區新生路與金福路口</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50/40</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
@@ -7092,17 +7092,17 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>高速公路接金福路之高架聯絡道北上（離金福路出口500公尺處)</t>
+          <t>前鎮區新生路與金福路口</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50/40</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -7113,7 +7113,7 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
@@ -7131,28 +7131,28 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>前鎮區班超路瑞祥高中前</t>
+          <t>高速公路接金福路之高架聯絡道南下（離金福路出口900公尺處)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
@@ -7170,17 +7170,17 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>前鎮區凱旋三路/二聖一路(輕軌沿線)</t>
+          <t>高速公路接金福路之高架聯絡道北上（離金福路出口500公尺處)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -7191,7 +7191,7 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I173" t="inlineStr"/>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>前鎮區漁港路/草衙一路</t>
+          <t>前鎮區班超路瑞祥高中前</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
@@ -7248,17 +7248,17 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>前鎮區中山三路與光華三路口</t>
+          <t>前鎮區凱旋三路/二聖一路(輕軌沿線)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>60/40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>前鎮區一心二路/復興三路</t>
+          <t>前鎮區漁港路/草衙一路</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7302,7 +7302,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G176" t="inlineStr"/>
@@ -7321,22 +7321,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>美濃</t>
+          <t>前鎮</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>美濃區美興街232號前(月光山隧道前方)</t>
+          <t>前鎮區中山三路與光華三路口</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60/40</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -7347,7 +7347,7 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I177" t="inlineStr"/>
@@ -7360,17 +7360,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>美濃</t>
+          <t>前鎮</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>美濃區中山路二段359巷口</t>
+          <t>前鎮區一心二路/復興三路</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7380,13 +7380,13 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I178" t="inlineStr"/>
@@ -7404,12 +7404,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>美濃區復興街一段480號前</t>
+          <t>美濃區美興街232號前(月光山隧道前方)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>50/40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G179" t="inlineStr"/>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>美濃區中華路(台28線)與獅山街口</t>
+          <t>美濃區中山路二段359巷口</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7453,18 +7453,18 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I180" t="inlineStr"/>
@@ -7482,12 +7482,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>美濃區台28線(中興路一段)37K+412</t>
+          <t>美濃區復興街一段480號前</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50/40</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G181" t="inlineStr"/>
@@ -7516,22 +7516,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>苓雅</t>
+          <t>美濃</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>建國路與武廟路口</t>
+          <t>美濃區中華路(台28線)與獅山街口</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7542,7 +7542,7 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
@@ -7555,12 +7555,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>苓雅</t>
+          <t>美濃</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>五福三路與英雄路口</t>
+          <t>美濃區台28線(中興路一段)37K+412</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7581,7 +7581,7 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>建國一路與正義路口</t>
+          <t>建國路與武廟路口</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -7614,13 +7614,13 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I184" t="inlineStr"/>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>中山二路361號前</t>
+          <t>五福三路與英雄路口</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -7648,18 +7648,18 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I185" t="inlineStr"/>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>中山二路432號前</t>
+          <t>建國一路與正義路口</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -7687,18 +7687,18 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I186" t="inlineStr"/>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>武營路與三多一路口</t>
+          <t>中山二路361號前</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -7726,18 +7726,18 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I187" t="inlineStr"/>
@@ -7755,7 +7755,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>五福一路與凱旋二路口</t>
+          <t>中山二路432號前</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -7765,18 +7765,18 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I188" t="inlineStr"/>
@@ -7794,7 +7794,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>建國一路與中山高涵洞東側</t>
+          <t>武營路與三多一路口</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -7804,12 +7804,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>違左</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>西向北</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
@@ -7833,7 +7833,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>中正一路國軍高雄總醫院旁</t>
+          <t>五福一路與凱旋二路口</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -7843,18 +7843,18 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>東西向</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I190" t="inlineStr"/>
@@ -7872,7 +7872,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>中正地下道(東向西出口)(超速)</t>
+          <t>建國一路與中山高涵洞東側</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -7882,18 +7882,18 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>違左</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>西向北</t>
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I191" t="inlineStr"/>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>中正地下道(西向東出口)(超速)</t>
+          <t>中正一路國軍高雄總醫院旁</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -7926,7 +7926,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>東西向</t>
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>五福一路與和平一路口</t>
+          <t>中正地下道(東向西出口)(超速)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -7960,18 +7960,18 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I193" t="inlineStr"/>
@@ -7989,17 +7989,17 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>苓雅區中正一路與高速公路</t>
+          <t>中正地下道(西向東出口)(超速)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>50/40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -8010,7 +8010,7 @@
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I194" t="inlineStr"/>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>苓雅區三多一路與建軍路口</t>
+          <t>五福一路與和平一路口</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -8049,7 +8049,7 @@
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I195" t="inlineStr"/>
@@ -8067,12 +8067,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>苓雅區三多二路與凱旋二路口</t>
+          <t>苓雅區中正一路與高速公路</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50/40</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8082,13 +8082,13 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I196" t="inlineStr"/>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>苓雅區凱旋二路/四維一路</t>
+          <t>苓雅區三多一路與建軍路口</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>苓雅區輔仁路/中正一路</t>
+          <t>苓雅區三多二路與凱旋二路口</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>苓雅區中正一路/河南路/大順三路</t>
+          <t>苓雅區凱旋二路/四維一路</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -8194,12 +8194,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G199" t="inlineStr"/>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>苓雅區中華四路與四維四路口</t>
+          <t>苓雅區中正一路/河南路/大順三路</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -8233,12 +8233,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
@@ -8257,17 +8257,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>茄萣</t>
+          <t>苓雅</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>茄萣區正順北路(高1-1線)與崎漏路口</t>
+          <t>苓雅區中華四路與四維四路口</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G201" t="inlineStr"/>
@@ -8301,28 +8301,28 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>茄萣區正順北路近正順東路口</t>
+          <t>茄萣區正順北路(高1-1線)與崎漏路口</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I202" t="inlineStr"/>
@@ -8335,17 +8335,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>鳥松</t>
+          <t>茄萣</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>鳥松區神農路54-6號前</t>
+          <t>茄萣區正順北路近正順東路口</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>東西向</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
@@ -8379,12 +8379,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>鳥松區大埤路32號自來水廠前</t>
+          <t>鳥松區神農路54-6號前</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>南北雙向</t>
+          <t>東西向</t>
         </is>
       </c>
       <c r="G204" t="inlineStr"/>
@@ -8413,33 +8413,33 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>湖內</t>
+          <t>鳥松</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>湖內區中山路一段與284巷口</t>
+          <t>鳥松區大埤路32號自來水廠前</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>南北雙向</t>
         </is>
       </c>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I205" t="inlineStr"/>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>湖內區和平路與東方路口</t>
+          <t>湖內區中山路一段與284巷口</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -8478,7 +8478,7 @@
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I206" t="inlineStr"/>
@@ -8491,33 +8491,33 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>新興</t>
+          <t>湖內</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>民生一路與仁愛二街口</t>
+          <t>湖內區和平路與東方路口</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I207" t="inlineStr"/>
@@ -8530,12 +8530,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>楠梓</t>
+          <t>新興</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>旗楠路與土庫一路口</t>
+          <t>民生一路與仁愛二街口</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -8550,7 +8550,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -8574,12 +8574,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>德中路與大學二十九路口</t>
+          <t>旗楠路與土庫一路口</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
@@ -8613,12 +8613,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>德民路與海專路口</t>
+          <t>德中路與大學二十九路口</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>60/40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -8628,13 +8628,13 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I210" t="inlineStr"/>
@@ -8652,12 +8652,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>旗楠路與常德路口</t>
+          <t>德民路與海專路口</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>60/40</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -8667,13 +8667,13 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I211" t="inlineStr"/>
@@ -8691,12 +8691,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>左楠路與後昌路口</t>
+          <t>旗楠路與常德路口</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -8706,7 +8706,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
@@ -8730,28 +8730,28 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>德中路與大學二十九路口</t>
+          <t>左楠路與後昌路口</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I213" t="inlineStr"/>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>高楠公路1015-6號前</t>
+          <t>德中路與大學二十九路口</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -8784,7 +8784,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>南北向</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
@@ -8808,28 +8808,28 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>加昌路與左楠路口</t>
+          <t>高楠公路1015-6號前</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南北向</t>
         </is>
       </c>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I215" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>215/td&gt;</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -8847,28 +8847,28 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>高楠公路與德民路口</t>
+          <t>加昌路與左楠路口</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I216" t="inlineStr"/>
@@ -8886,28 +8886,28 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>高楠公路與水管路口</t>
+          <t>高楠公路與德民路口</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I217" t="inlineStr"/>
@@ -8925,12 +8925,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>楠梓區德民路與德惠路口</t>
+          <t>高楠公路與水管路口</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -8940,7 +8940,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G218" t="inlineStr"/>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>楠梓區左楠路與外環西路</t>
+          <t>楠梓區德民路與德惠路口</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -8979,13 +8979,13 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I219" t="inlineStr"/>
@@ -9003,12 +9003,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>楠陽路與鳳楠路口</t>
+          <t>楠梓區左楠路與外環西路</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9018,13 +9018,13 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I220" t="inlineStr"/>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>高楠公路金屬研發中心前(高楠公路1003巷口)</t>
+          <t>楠陽路與鳳楠路口</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -9057,7 +9057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G221" t="inlineStr"/>
@@ -9081,28 +9081,28 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>楠梓區加昌路/瑞屏路</t>
+          <t>高楠公路金屬研發中心前(高楠公路1003巷口)</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I222" t="inlineStr"/>
@@ -9115,22 +9115,22 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>路竹</t>
+          <t>楠梓</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>路竹區環球路新生路口</t>
+          <t>楠梓區加昌路/瑞屏路</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -9141,7 +9141,7 @@
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I223" t="inlineStr"/>
@@ -9159,7 +9159,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>路竹區環球路與樹人醫事學校前路口</t>
+          <t>路竹區環球路新生路口</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -9169,18 +9169,18 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I224" t="inlineStr"/>
@@ -9198,12 +9198,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>路竹區復興路327巷口</t>
+          <t>路竹區環球路與樹人醫事學校前路口</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9213,7 +9213,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>路竹區中山路與國昌路口</t>
+          <t>路竹區復興路327巷口</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -9247,18 +9247,18 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I226" t="inlineStr"/>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>路竹區復興路與復興路1133巷口</t>
+          <t>路竹區中山路與國昌路口</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -9286,18 +9286,18 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I227" t="inlineStr"/>
@@ -9310,12 +9310,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>鼓山</t>
+          <t>路竹</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>明誠三路與南屏路口</t>
+          <t>路竹區復興路與復興路1133巷口</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -9325,18 +9325,18 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I228" t="inlineStr"/>
@@ -9354,28 +9354,28 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>中華一路與大順一路口</t>
+          <t>明誠三路與南屏路口</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I229" t="inlineStr"/>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>中華一路與美術北三路口</t>
+          <t>中華一路與大順一路口</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -9403,18 +9403,18 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I230" t="inlineStr"/>
@@ -9432,17 +9432,17 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>鼓山三路與青峰路口</t>
+          <t>中華一路與美術北三路口</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -9453,7 +9453,7 @@
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I231" t="inlineStr"/>
@@ -9471,28 +9471,28 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>鼓山區蓬萊路32號前(輕軌沿線)</t>
+          <t>鼓山三路與青峰路口</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I232" t="inlineStr"/>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>鼓山區左營高架橋(中華陸橋)往南下橋處</t>
+          <t>鼓山區蓬萊路32號前(輕軌沿線)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -9520,18 +9520,18 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I233" t="inlineStr"/>
@@ -9549,28 +9549,28 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>鼓山區青海路與美術東二路口</t>
+          <t>鼓山區左營高架橋(中華陸橋)往南下橋處</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I234" t="inlineStr"/>
@@ -9583,12 +9583,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>旗山</t>
+          <t>鼓山</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>旗山區台28線29.2公里處</t>
+          <t>鼓山區青海路與美術東二路口</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -9598,18 +9598,18 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I235" t="inlineStr"/>
@@ -9627,28 +9627,28 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>旗山區延平一路與旗甲路一段路口</t>
+          <t>旗山區台28線29.2公里處</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I236" t="inlineStr"/>
@@ -9666,28 +9666,28 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>旗山區旗南三路8號以北50公尺處</t>
+          <t>旗山區延平一路與旗甲路一段路口</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>南北向</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I237" t="inlineStr"/>
@@ -9705,7 +9705,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>旗山區中華路與華中街口</t>
+          <t>旗山區旗南三路8號以北50公尺處</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -9715,18 +9715,18 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南北向</t>
         </is>
       </c>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I238" t="inlineStr"/>
@@ -9744,28 +9744,28 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>旗山區旗甲路一段(台29線62K)圓潭橋前</t>
+          <t>旗山區中華路與華中街口</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I239" t="inlineStr"/>
@@ -9783,12 +9783,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>旗山區台29線(旗南三路)75.3K處</t>
+          <t>旗山區旗甲路一段(台29線62K)圓潭橋前</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -9798,7 +9798,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>南北向</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G240" t="inlineStr"/>
@@ -9822,12 +9822,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>旗山區台29線(旗甲路三段)58K+274</t>
+          <t>旗山區台29線(旗南三路)75.3K處</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>南北向</t>
         </is>
       </c>
       <c r="G241" t="inlineStr"/>
@@ -9861,12 +9861,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>旗山區台3線(旗屏二路)與高92線口</t>
+          <t>旗山區台29線(旗甲路三段)58K+274</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>南北向</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G242" t="inlineStr"/>
@@ -9900,28 +9900,28 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>旗山區中華路與延平一路口</t>
+          <t>旗山區台3線(旗屏二路)與高92線口</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>南北向</t>
         </is>
       </c>
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I243" t="inlineStr"/>
@@ -9934,22 +9934,22 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>鳳山</t>
+          <t>旗山</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>鳳山區鳳頂路與田中央路口</t>
+          <t>旗山區中華路與延平一路口</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -9960,7 +9960,7 @@
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I244" t="inlineStr"/>
@@ -9973,22 +9973,22 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>鳳山</t>
+          <t>旗山</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>鳳山區國泰路二段與五甲一路口</t>
+          <t>旗山區延平一路與中華路口</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -10017,7 +10017,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>鳳山區建國路三段與青年路二段口</t>
+          <t>鳳山區鳳頂路與田中央路口</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -10032,7 +10032,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G246" t="inlineStr"/>
@@ -10056,12 +10056,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>鳳山區南華一路保安二街口</t>
+          <t>鳳山區國泰路二段與五甲一路口</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10071,13 +10071,13 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I247" t="inlineStr"/>
@@ -10095,12 +10095,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>鳳山區建國路三段與澄清路口</t>
+          <t>鳳山區建國路三段與青年路二段口</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10134,7 +10134,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>鳳山區中山東路與光遠路口</t>
+          <t>鳳山區南華一路保安二街口</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G249" t="inlineStr"/>
@@ -10173,28 +10173,28 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>鳳山區鳳頂路(台糖加油站對面)</t>
+          <t>鳳山區建國路三段與澄清路口</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G250" t="inlineStr"/>
       <c r="H250" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I250" t="inlineStr"/>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>鳳山區國泰路一段與鳳頂路口</t>
+          <t>鳳山區中山東路與光遠路口</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -10227,13 +10227,13 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I251" t="inlineStr"/>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>鳳山區南華一路與和成路</t>
+          <t>鳳山區鳳頂路(台糖加油站對面)</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -10261,18 +10261,18 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I252" t="inlineStr"/>
@@ -10290,28 +10290,28 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>鳳山區國泰路二段與南京路口</t>
+          <t>鳳山區國泰路一段與鳳頂路口</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I253" t="inlineStr"/>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>鳳山區鳳頂路與過埤路口</t>
+          <t>鳳山區南華一路與和成路</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -10339,12 +10339,12 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G254" t="inlineStr"/>
@@ -10368,22 +10368,22 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>鳳山區臨海路與南華一路口</t>
+          <t>鳳山區國泰路二段與南京路口</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>50/40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G255" t="inlineStr"/>
@@ -10407,7 +10407,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>鳳山區過埤路與鳳頂路口(快車道)</t>
+          <t>鳳山區鳳頂路與過埤路口</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -10417,18 +10417,18 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>闖紅燈兼路口科技執法監測</t>
+          <t>闖紅燈兼超速</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I256" t="inlineStr"/>
@@ -10446,28 +10446,28 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>鳳山區南華一路與鳳甲路口</t>
+          <t>鳳山區臨海路與南華一路口</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50/40</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I257" t="inlineStr"/>
@@ -10485,22 +10485,22 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>鳳山區保南二路與保義街口</t>
+          <t>鳳山區過埤路與鳳頂路口(快車道)</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈兼路口科技執法監測</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>南向北</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G258" t="inlineStr"/>
@@ -10524,12 +10524,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>鳳山區三商街高速公路口機慢車專用道往南415公尺處</t>
+          <t>鳳山區南華一路與鳳甲路口</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G259" t="inlineStr"/>
@@ -10563,12 +10563,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>鳳山區五甲一路與瑞隆東路口</t>
+          <t>鳳山區保南二路與保義街口</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -10578,7 +10578,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>南向北</t>
         </is>
       </c>
       <c r="G260" t="inlineStr"/>
@@ -10597,22 +10597,22 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>橋頭</t>
+          <t>鳳山</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>橋頭區成功南路仕隆路口</t>
+          <t>鳳山區三商街高速公路口機慢車專用道往南415公尺處</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -10623,7 +10623,7 @@
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I261" t="inlineStr"/>
@@ -10636,12 +10636,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>橋頭</t>
+          <t>鳳山</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>橋頭區白樹路175號對面</t>
+          <t>鳳山區五甲一路與瑞隆東路口</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -10651,18 +10651,18 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I262" t="inlineStr"/>
@@ -10680,7 +10680,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>橋頭區成功北路與新興路</t>
+          <t>橋頭區成功南路仕隆路口</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -10701,7 +10701,7 @@
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I263" t="inlineStr"/>
@@ -10719,28 +10719,28 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>橋頭區成功北路與鐵道北路</t>
+          <t>橋頭區白樹路175號對面</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>西向東</t>
         </is>
       </c>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射(雷達)</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I264" t="inlineStr"/>
@@ -10758,7 +10758,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>橋頭區成功南路與經武路口</t>
+          <t>橋頭區成功北路與新興路</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -10768,7 +10768,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -10779,7 +10779,7 @@
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
       <c r="I265" t="inlineStr"/>
@@ -10792,17 +10792,17 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>燕巢</t>
+          <t>橋頭</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>燕巢區旗楠路段(鳳旗路44號之10旁)</t>
+          <t>橋頭區成功南路與經武路口</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -10812,7 +10812,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G266" t="inlineStr"/>
@@ -10836,28 +10836,28 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>中興路與南一巷口(燕巢國中前)</t>
+          <t>燕巢區旗楠路段(鳳旗路44號之10旁)</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr">
         <is>
-          <t>線圈數位</t>
+          <t>雷達數位</t>
         </is>
       </c>
       <c r="I267" t="inlineStr"/>
@@ -10875,12 +10875,12 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>燕巢區台22線深水國小前路口</t>
+          <t>中興路與南一巷口(燕巢國中前)</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -10890,13 +10890,13 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>東向西</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr">
         <is>
-          <t>非線圈數位-雷射</t>
+          <t>線圈數位</t>
         </is>
       </c>
       <c r="I268" t="inlineStr"/>
@@ -10914,28 +10914,28 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>燕巢區鳳澄路7之32號前</t>
+          <t>燕巢區台22線深水國小前路口</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>超速</t>
+          <t>闖紅燈</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>北向南</t>
+          <t>東向西</t>
         </is>
       </c>
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr">
         <is>
-          <t>雷達數位</t>
+          <t>非線圈數位-雷射</t>
         </is>
       </c>
       <c r="I269" t="inlineStr"/>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>燕巢區深中路（台22線）國立高雄科學大學燕巢校區前</t>
+          <t>燕巢區鳳澄路7之32號前</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -10963,21 +10963,99 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>闖紅燈兼超速</t>
+          <t>超速</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>西向東</t>
+          <t>北向南</t>
         </is>
       </c>
       <c r="G270" t="inlineStr"/>
       <c r="H270" t="inlineStr">
         <is>
+          <t>雷達數位</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>燕巢</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>燕巢區深中路（台22線）國立高雄科學大學燕巢校區前</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>闖紅燈兼超速</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>西向東</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr">
+        <is>
           <t>非線圈數位-雷射(雷達)</t>
         </is>
       </c>
-      <c r="I270" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>彌陀</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>彌陀區中正東路91號前</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>超速</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>北向南</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>雷達數位</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11255,7 +11333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14086,6 +14164,42 @@
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>橋頭區成功北路與鐵道北路</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>路口各項違規(闖紅燈、超速、不依標誌標線號誌行駛等)</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>北向南</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>22.767154</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>120.305743</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19002,13 +19116,13 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>苓雅區大順三路與中正一路口</t>
+          <t>苓雅區河南路與中正一路口</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>違規左轉</t>
+          <t>違規左轉等各項違規</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -19022,7 +19136,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -19034,7 +19148,7 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈等各項違規</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -19048,7 +19162,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -19074,7 +19188,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -19100,7 +19214,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -19126,7 +19240,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -19152,7 +19266,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -19178,7 +19292,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -19204,7 +19318,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -19230,7 +19344,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -19256,7 +19370,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -19282,7 +19396,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -19308,7 +19422,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -19334,7 +19448,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -19360,7 +19474,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -19386,7 +19500,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -19412,7 +19526,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -19438,7 +19552,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -19464,7 +19578,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -19490,7 +19604,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -19516,7 +19630,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -19542,7 +19656,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -19568,7 +19682,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -19594,7 +19708,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -19620,7 +19734,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -19646,7 +19760,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -19672,7 +19786,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -19698,7 +19812,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -19724,7 +19838,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -19750,7 +19864,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -19776,7 +19890,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -19802,7 +19916,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -19828,7 +19942,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -19854,7 +19968,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -19880,7 +19994,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -19906,7 +20020,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -19932,7 +20046,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -19958,7 +20072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -19984,7 +20098,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -20010,7 +20124,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -20036,7 +20150,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -20062,7 +20176,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -20088,7 +20202,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -20114,7 +20228,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -20140,7 +20254,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -20166,7 +20280,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -20192,7 +20306,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -20218,7 +20332,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -20244,7 +20358,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -20270,7 +20384,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -20296,7 +20410,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -20322,7 +20436,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -20348,7 +20462,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -20374,7 +20488,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -20400,7 +20514,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -20426,7 +20540,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -20452,7 +20566,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -20478,7 +20592,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -20504,7 +20618,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -20530,7 +20644,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -20556,7 +20670,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -20582,7 +20696,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -20608,7 +20722,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
